--- a/DateBase/orders/name001_2024-9-5.xlsx
+++ b/DateBase/orders/name001_2024-9-5.xlsx
@@ -449,7 +449,7 @@
         <v>lisianthus</v>
       </c>
       <c r="C2" t="str">
-        <v>波浪白洋桔梗_3</v>
+        <v>波浪白洋桔梗</v>
       </c>
       <c r="D2" t="str">
         <v>600 g</v>
@@ -459,6 +459,18 @@
       </c>
       <c r="F2" t="str">
         <v>10</v>
+      </c>
+      <c r="G2" t="str">
+        <v>10</v>
+      </c>
+      <c r="H2" t="str">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>22.5</v>
+      </c>
+      <c r="L2">
+        <v>225</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +481,7 @@
         <v>Hydrangeas</v>
       </c>
       <c r="C3" t="str">
-        <v>绣球单瓣白_1</v>
+        <v>绣球单瓣白</v>
       </c>
       <c r="D3" t="str">
         <v>1 stem</v>
@@ -479,6 +491,18 @@
       </c>
       <c r="F3" t="str">
         <v>20</v>
+      </c>
+      <c r="G3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H3" t="str">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>32.5</v>
+      </c>
+      <c r="L3">
+        <v>650</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +513,7 @@
         <v>lisianthus</v>
       </c>
       <c r="C4" t="str">
-        <v>粉洋桔梗_2</v>
+        <v>粉洋桔梗</v>
       </c>
       <c r="D4" t="str">
         <v>800 g</v>
@@ -499,6 +523,18 @@
       </c>
       <c r="F4" t="str">
         <v>10</v>
+      </c>
+      <c r="G4" t="str">
+        <v>40</v>
+      </c>
+      <c r="H4" t="str">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>52.5</v>
+      </c>
+      <c r="L4">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -540,22 +576,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>40.00</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>30.00</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>100.00</v>
       </c>
       <c r="G2" t="str">
         <v>0102010</v>

--- a/DateBase/orders/name001_2024-9-5.xlsx
+++ b/DateBase/orders/name001_2024-9-5.xlsx
@@ -449,7 +449,7 @@
         <v>lisianthus</v>
       </c>
       <c r="C2" t="str">
-        <v>波浪白洋桔梗</v>
+        <v>3_波浪白洋桔梗</v>
       </c>
       <c r="D2" t="str">
         <v>600 g</v>
@@ -481,7 +481,7 @@
         <v>Hydrangeas</v>
       </c>
       <c r="C3" t="str">
-        <v>绣球单瓣白</v>
+        <v>1_绣球单瓣白</v>
       </c>
       <c r="D3" t="str">
         <v>1 stem</v>
@@ -513,7 +513,7 @@
         <v>lisianthus</v>
       </c>
       <c r="C4" t="str">
-        <v>粉洋桔梗</v>
+        <v>2_粉洋桔梗</v>
       </c>
       <c r="D4" t="str">
         <v>800 g</v>

--- a/DateBase/orders/name001_2024-9-5.xlsx
+++ b/DateBase/orders/name001_2024-9-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,60 +449,36 @@
         <v>lisianthus</v>
       </c>
       <c r="C2" t="str">
-        <v>3_波浪白洋桔梗</v>
+        <v>1_白洋桔梗 White Lisianthus</v>
       </c>
       <c r="D2" t="str">
-        <v>600 g</v>
+        <v>800 g</v>
       </c>
       <c r="E2" t="str">
-        <v>0.6</v>
+        <v>0.8 weight/kg</v>
       </c>
       <c r="F2" t="str">
-        <v>10</v>
-      </c>
-      <c r="G2" t="str">
-        <v>10</v>
-      </c>
-      <c r="H2" t="str">
         <v>20</v>
-      </c>
-      <c r="K2">
-        <v>22.5</v>
-      </c>
-      <c r="L2">
-        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>Hydrangeas</v>
+        <v>lisianthus</v>
       </c>
       <c r="C3" t="str">
-        <v>1_绣球单瓣白</v>
+        <v>3_波浪白洋桔梗 Wavy White Lisianthus</v>
       </c>
       <c r="D3" t="str">
-        <v>1 stem</v>
+        <v>600 g</v>
       </c>
       <c r="E3" t="str">
-        <v>0.3</v>
+        <v>0.6 weight/kg</v>
       </c>
       <c r="F3" t="str">
-        <v>20</v>
-      </c>
-      <c r="G3" t="str">
-        <v>20</v>
-      </c>
-      <c r="H3" t="str">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>32.5</v>
-      </c>
-      <c r="L3">
-        <v>650</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -510,36 +486,44 @@
         <v>2</v>
       </c>
       <c r="B4" t="str">
+        <v>Hydrangeas</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2_绣球秋红 undefined</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1 stem</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0.3 weight/kg</v>
+      </c>
+      <c r="F4" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
+      </c>
+      <c r="B5" t="str">
         <v>lisianthus</v>
       </c>
-      <c r="C4" t="str">
-        <v>2_粉洋桔梗</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="C5" t="str">
+        <v>7_翠绿洋桔梗 Dark Green Lisianthus</v>
+      </c>
+      <c r="D5" t="str">
         <v>800 g</v>
       </c>
-      <c r="E4" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="F4" t="str">
-        <v>10</v>
-      </c>
-      <c r="G4" t="str">
-        <v>40</v>
-      </c>
-      <c r="H4" t="str">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>52.5</v>
-      </c>
-      <c r="L4">
-        <v>525</v>
+      <c r="E5" t="str">
+        <v>0.8 weight/kg</v>
+      </c>
+      <c r="F5" t="str">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -576,25 +560,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="B2" t="str">
-        <v>40.00</v>
+        <v>0.00</v>
       </c>
       <c r="C2" t="str">
-        <v>30.00</v>
+        <v>0.00</v>
       </c>
       <c r="D2" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="E2" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v>100.00</v>
+        <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0102010</v>
+        <v>020102030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-5.xlsx
+++ b/DateBase/orders/name001_2024-9-5.xlsx
@@ -460,6 +460,18 @@
       <c r="F2" t="str">
         <v>20</v>
       </c>
+      <c r="G2" t="str">
+        <v>21</v>
+      </c>
+      <c r="H2" t="str">
+        <v>100.21</v>
+      </c>
+      <c r="K2">
+        <v>107.98575</v>
+      </c>
+      <c r="L2">
+        <v>2159.715</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -480,6 +492,18 @@
       <c r="F3" t="str">
         <v>10</v>
       </c>
+      <c r="G3" t="str">
+        <v>32</v>
+      </c>
+      <c r="H3" t="str">
+        <v>321.98</v>
+      </c>
+      <c r="K3">
+        <v>329.75575000000003</v>
+      </c>
+      <c r="L3">
+        <v>3297.5575000000003</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -500,6 +524,18 @@
       <c r="F4" t="str">
         <v>20</v>
       </c>
+      <c r="G4" t="str">
+        <v>43</v>
+      </c>
+      <c r="H4" t="str">
+        <v>231.67</v>
+      </c>
+      <c r="K4">
+        <v>239.44574999999998</v>
+      </c>
+      <c r="L4">
+        <v>4788.914999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -519,6 +555,18 @@
       </c>
       <c r="F5" t="str">
         <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <v>12</v>
+      </c>
+      <c r="H5" t="str">
+        <v>321.18</v>
+      </c>
+      <c r="K5">
+        <v>328.95575</v>
+      </c>
+      <c r="L5">
+        <v>9868.6725</v>
       </c>
     </row>
   </sheetData>
@@ -560,22 +608,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>122.00</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>123.00</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>142.00</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>198.00</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>36.00</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>621.00</v>
       </c>
       <c r="G2" t="str">
         <v>020102030</v>

--- a/DateBase/orders/name001_2024-9-5.xlsx
+++ b/DateBase/orders/name001_2024-9-5.xlsx
@@ -461,16 +461,16 @@
         <v>20</v>
       </c>
       <c r="G2" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="str">
         <v>100.21</v>
       </c>
       <c r="K2">
-        <v>107.98575</v>
+        <v>107.99024999999999</v>
       </c>
       <c r="L2">
-        <v>2159.715</v>
+        <v>2159.805</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>321.98</v>
       </c>
       <c r="K3">
-        <v>329.75575000000003</v>
+        <v>329.76025000000004</v>
       </c>
       <c r="L3">
-        <v>3297.5575000000003</v>
+        <v>3297.6025000000004</v>
       </c>
     </row>
     <row r="4">
@@ -531,10 +531,10 @@
         <v>231.67</v>
       </c>
       <c r="K4">
-        <v>239.44574999999998</v>
+        <v>239.45024999999998</v>
       </c>
       <c r="L4">
-        <v>4788.914999999999</v>
+        <v>4789.004999999999</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>321.18</v>
       </c>
       <c r="K5">
-        <v>328.95575</v>
+        <v>328.96025000000003</v>
       </c>
       <c r="L5">
-        <v>9868.6725</v>
+        <v>9868.8075</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-5.xlsx
+++ b/DateBase/orders/name001_2024-9-5.xlsx
@@ -460,6 +460,18 @@
       <c r="F2" t="str">
         <v>10</v>
       </c>
+      <c r="G2" t="str">
+        <v>32</v>
+      </c>
+      <c r="H2" t="str">
+        <v>32.32</v>
+      </c>
+      <c r="K2">
+        <v>42.320750000000004</v>
+      </c>
+      <c r="L2">
+        <v>423.20750000000004</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -480,6 +492,18 @@
       <c r="F3" t="str">
         <v>20</v>
       </c>
+      <c r="G3" t="str">
+        <v>32</v>
+      </c>
+      <c r="H3" t="str">
+        <v>21.21</v>
+      </c>
+      <c r="K3">
+        <v>31.21075</v>
+      </c>
+      <c r="L3">
+        <v>624.215</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -500,6 +524,18 @@
       <c r="F4" t="str">
         <v>20</v>
       </c>
+      <c r="G4" t="str">
+        <v>23</v>
+      </c>
+      <c r="H4" t="str">
+        <v>32.21</v>
+      </c>
+      <c r="K4">
+        <v>42.210750000000004</v>
+      </c>
+      <c r="L4">
+        <v>844.2150000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -519,6 +555,18 @@
       </c>
       <c r="F5" t="str">
         <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <v>21</v>
+      </c>
+      <c r="H5" t="str">
+        <v>23.43</v>
+      </c>
+      <c r="K5">
+        <v>33.43075</v>
+      </c>
+      <c r="L5">
+        <v>1002.9225000000001</v>
       </c>
     </row>
   </sheetData>
@@ -560,22 +608,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>102.21</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>320.21</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>232.23</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>13.20</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>132.21</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>800.06</v>
       </c>
       <c r="G2" t="str">
         <v>010202030</v>
